--- a/biology/Médecine/Examen_non_invasif/Examen_non_invasif.xlsx
+++ b/biology/Médecine/Examen_non_invasif/Examen_non_invasif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'examen non invasif est un examen médical ne nécessitant aucune effraction de la peau autre que pour prélever du sang ou pour injecter un produit. 
 Ces examens ne nécessitent pas d'hospitalisation mais cela ne signifie pas forcément qu'ils soient bien tolérés (fibroscopie) ou dénués de tout danger. Ils peuvent parfois être coûteux et/ou nécessiter une infrastructure importante.
